--- a/src/test/resources/TestData/BestBuyApiDate.xlsx
+++ b/src/test/resources/TestData/BestBuyApiDate.xlsx
@@ -4,21 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="100" windowWidth="19100" windowHeight="7300" activeTab="4"/>
+    <workbookView xWindow="80" yWindow="100" windowWidth="19100" windowHeight="7300" tabRatio="896"/>
   </bookViews>
   <sheets>
-    <sheet name="Product" sheetId="1" r:id="rId1"/>
-    <sheet name="Categories" sheetId="2" r:id="rId2"/>
-    <sheet name="Stores" sheetId="3" r:id="rId3"/>
-    <sheet name="Services" sheetId="4" r:id="rId4"/>
-    <sheet name="ProductAddList" sheetId="5" r:id="rId5"/>
+    <sheet name="ProductPost" sheetId="1" r:id="rId1"/>
+    <sheet name="CategoriesPost" sheetId="2" r:id="rId2"/>
+    <sheet name="StoresPost" sheetId="3" r:id="rId3"/>
+    <sheet name="ServicesPost" sheetId="4" r:id="rId4"/>
+    <sheet name="ProductPostResponse" sheetId="5" r:id="rId5"/>
+    <sheet name="CategoriesPostResponse" sheetId="6" r:id="rId6"/>
+    <sheet name="StoresPostResponse" sheetId="7" r:id="rId7"/>
+    <sheet name="ServicePostResponse" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>name</t>
   </si>
@@ -51,13 +54,76 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Apple Macbook Pro</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>15 inch Laptop</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Macbook Pro</t>
+  </si>
+  <si>
+    <t>http://appple.com</t>
+  </si>
+  <si>
+    <t>https://apple.com</t>
+  </si>
+  <si>
+    <t>Acer Swift 3</t>
+  </si>
+  <si>
+    <t>Acer 15 inch Laptop</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>Swift 2</t>
+  </si>
+  <si>
+    <t>http://acer.com</t>
+  </si>
+  <si>
+    <t>https://acer.com</t>
+  </si>
+  <si>
+    <t>Oneplus 8</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Oneplus 8 smartphone</t>
+  </si>
+  <si>
+    <t>Oneplus</t>
+  </si>
+  <si>
+    <t>https://oneplus.com</t>
+  </si>
+  <si>
+    <t>Iphone 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iphone </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +137,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -96,14 +169,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -396,15 +475,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="18.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" customWidth="1"/>
+    <col min="6" max="6" width="28.08984375" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
     <col min="8" max="8" width="16.08984375" customWidth="1"/>
     <col min="9" max="9" width="24.08984375" customWidth="1"/>
     <col min="10" max="10" width="22.54296875" customWidth="1"/>
@@ -442,9 +526,147 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1200</v>
+      </c>
+      <c r="D3">
+        <v>200</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>800</v>
+      </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>1200</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="I3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="I5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -490,7 +712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -507,4 +729,40 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>